--- a/_references/meeting_summary.xlsx
+++ b/_references/meeting_summary.xlsx
@@ -49,7 +49,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4축 로봇팔 제어 및 저항저장, 자동실행로봇 프로젝트 관련 공식 미팅</t>
+    <t>4축 로봇팔 제어 및 저항저장, 자동실행로봇 프로젝트 관련 공식 미팅
+1. 프로젝트 범위 결정: 개인별 로봇 개발 후, 포트폴리오용 로봇 개발 진행
+2. 프로젝트 기간 결정: 4주 (1월 3일부터 2월 2일까지)
+ - 1주: 개인별 로봇 배선 및 하드웨어 설계
+ - 2주: 아두이노 프로그래밍, 버그수정, 개인별 로봇 생성 완료
+ - 3주: 추가기능 개발 (자동화 측정, HMI, 스카다 등), 포트폴리오 로봇 준비
+ - 4주: 포트폴리오 로봇 개발 완료, 문서화 작성
+3. 공식 미팅일: 매주 화, 목
+4. 관리: 깃헙, 단톡
+[과제]
+포트폴리오를 위해 로봇의 목적 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,12 +142,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -421,14 +434,15 @@
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="2"/>
+    <col min="3" max="3" width="25.796875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -455,11 +469,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/_references/meeting_summary.xlsx
+++ b/_references/meeting_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>날자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
 4. 관리: 깃헙, 단톡
 [과제]
 포트폴리오를 위해 로봇의 목적 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃헙 셋업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +442,7 @@
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -478,8 +486,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
